--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E420A64-E039-4ADF-8CA4-BAADE05C9513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="44565" yWindow="795" windowWidth="13830" windowHeight="13455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BPMCCS" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="BPMCCS" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Note:</t>
   </si>
@@ -101,13 +113,163 @@
   </si>
   <si>
     <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>I tried to find a list of Texas project that are already under construction and are planning to come online by a specific date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://www.constructiondive.com/news/mcdermott-gets-go-ahead-for-937m-texas-power-plant/538507/</t>
+  </si>
+  <si>
+    <t>NGCC</t>
+  </si>
+  <si>
+    <t>Entergy Willis</t>
+  </si>
+  <si>
+    <t>One useful report is the ERCOT Generation Interconnection Status (GIS).</t>
+  </si>
+  <si>
+    <t>This data shows potential power plant construction projects whose investors have requested to connect to the ERCOT grid.</t>
+  </si>
+  <si>
+    <t>Many power plants don't make it through the screening stages. And some that get approved are never built, but the list of</t>
+  </si>
+  <si>
+    <t>approved power plants gives us some idea of what's in store</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/197386/Capacity_Changes_by_Fuel_Type_Charts_May_2020.xlsx</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>NGGT</t>
+  </si>
+  <si>
+    <t>They make a monthly summary of which parts of the GIS is most likely to be built (i.e. projects that have been approved for synchronization and/or have posted financial security)</t>
+  </si>
+  <si>
+    <t>Total Cumulative Additions</t>
+  </si>
+  <si>
+    <t>May 2020 ERCOT GIS</t>
+  </si>
+  <si>
+    <t>For reference, it may be useful to look at old GIS reports and see how much was actually built</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Aug_2018_GIS</t>
+  </si>
+  <si>
+    <t>Total Capacity</t>
+  </si>
+  <si>
+    <t>Wind Total Capacity</t>
+  </si>
+  <si>
+    <t>Solar Total Capacity</t>
+  </si>
+  <si>
+    <t>NGCC Total Capacity</t>
+  </si>
+  <si>
+    <t>NGGT Total Capacity</t>
+  </si>
+  <si>
+    <t>May_2019_GIS</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>INTERPRETATION</t>
+  </si>
+  <si>
+    <t>Wind capacity additions are overprojected by</t>
+  </si>
+  <si>
+    <t>on average.</t>
+  </si>
+  <si>
+    <t>Solar capacity additions are overprojected by</t>
+  </si>
+  <si>
+    <t>on average</t>
+  </si>
+  <si>
+    <t>NGCC capacity additions are projected but have</t>
+  </si>
+  <si>
+    <t>not yet been built.</t>
+  </si>
+  <si>
+    <t>NGGT capacity additions are projected, but retirements</t>
+  </si>
+  <si>
+    <t>mean that capacity actually decreases in some years.</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Let NGCC and NGGT be 0. Their projected growth is already very small (313MW, 470MW) and historical data suggest that these projections are inconsistent with what actually happens, and that neither technology is changing much.</t>
+  </si>
+  <si>
+    <t>Assume that WIND projections are optimistic by 255%--i.e., that only 39% of the projected capacity will be built</t>
+  </si>
+  <si>
+    <t>Assume that WIND projections are optimistic by 193%--i.e., that only 52% of the projected capacity will be built</t>
+  </si>
+  <si>
+    <t>Assume that for 2022 and beyond we have no idea.</t>
+  </si>
+  <si>
+    <t>So, combining those assumptions with historical numbers, we get</t>
+  </si>
+  <si>
+    <t>Capacity Additions</t>
+  </si>
+  <si>
+    <t>*since NGGT loses capacity over 2014--2019, let's just leave all of the values as zero</t>
+  </si>
+  <si>
+    <t>*since NGCC loses capacity in 2016, let's just lump that in with the capacity gains in 2017 to have a net positive number</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>I was also able to find one Texas construction project that is outside of ERCOT (in SPP in east Texas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +285,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,17 +324,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,6 +452,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +504,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,22 +696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,60 +719,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -538,22 +782,837 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE29DDC7-9990-4C5C-A8AE-B8E405223B28}">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="17" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <f>3567+3196</f>
+        <v>6763</v>
+      </c>
+      <c r="C14">
+        <f>3196+7018</f>
+        <v>10214</v>
+      </c>
+      <c r="D14">
+        <f>3196+7272</f>
+        <v>10468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <f>1057+2053</f>
+        <v>3110</v>
+      </c>
+      <c r="C15">
+        <f>1057+7379</f>
+        <v>8436</v>
+      </c>
+      <c r="D15">
+        <f>8554+1057</f>
+        <v>9611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <f>316+1-4</f>
+        <v>313</v>
+      </c>
+      <c r="C16">
+        <f>B16</f>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <f>96+374</f>
+        <v>470</v>
+      </c>
+      <c r="C17">
+        <f>B17</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>20582</v>
+      </c>
+      <c r="C24">
+        <v>21751</v>
+      </c>
+      <c r="D24">
+        <v>23860</v>
+      </c>
+      <c r="F24">
+        <v>1069</v>
+      </c>
+      <c r="G24">
+        <v>1858</v>
+      </c>
+      <c r="H24">
+        <v>2281</v>
+      </c>
+      <c r="J24">
+        <v>35959</v>
+      </c>
+      <c r="K24">
+        <f>J24</f>
+        <v>35959</v>
+      </c>
+      <c r="L24">
+        <f>K24</f>
+        <v>35959</v>
+      </c>
+      <c r="N24">
+        <v>18900</v>
+      </c>
+      <c r="O24">
+        <v>19718</v>
+      </c>
+      <c r="P24">
+        <v>19492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <f>23112-7</f>
+        <v>23105</v>
+      </c>
+      <c r="D25">
+        <f>31534-3770</f>
+        <v>27764</v>
+      </c>
+      <c r="E25">
+        <f>33270-4700</f>
+        <v>28570</v>
+      </c>
+      <c r="G25">
+        <v>1756</v>
+      </c>
+      <c r="H25">
+        <f>4052-1436</f>
+        <v>2616</v>
+      </c>
+      <c r="I25">
+        <f>4439-1622</f>
+        <v>2817</v>
+      </c>
+      <c r="K25">
+        <v>35477</v>
+      </c>
+      <c r="L25">
+        <v>35488</v>
+      </c>
+      <c r="M25">
+        <f>37759-2271</f>
+        <v>35488</v>
+      </c>
+      <c r="O25">
+        <v>19773</v>
+      </c>
+      <c r="P25">
+        <v>19869</v>
+      </c>
+      <c r="Q25">
+        <f>20267-398</f>
+        <v>19869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <f>27592-260</f>
+        <v>27332</v>
+      </c>
+      <c r="E26">
+        <f>35819-4136</f>
+        <v>31683</v>
+      </c>
+      <c r="H26">
+        <v>3182</v>
+      </c>
+      <c r="I26">
+        <f>7376-2174</f>
+        <v>5202</v>
+      </c>
+      <c r="L26">
+        <v>35736</v>
+      </c>
+      <c r="M26">
+        <f>L26</f>
+        <v>35736</v>
+      </c>
+      <c r="P26">
+        <v>19880</v>
+      </c>
+      <c r="Q26">
+        <v>19880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="7">
+        <f>(C25-B24)/(C24-B24)</f>
+        <v>2.1582549187339608</v>
+      </c>
+      <c r="D28" s="7">
+        <f>(D25-C24)/(D24-C24)</f>
+        <v>2.8511142721669036</v>
+      </c>
+      <c r="G28" s="7">
+        <f>(G25-F24)/(G24-F24)</f>
+        <v>0.87072243346007605</v>
+      </c>
+      <c r="H28" s="7">
+        <f>(H25-G24)/(H24-G24)</f>
+        <v>1.7919621749408983</v>
+      </c>
+      <c r="K28" s="7" t="e">
+        <f>(K25-J24)/(K24-J24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="7" t="e">
+        <f>(L25-K24)/(L24-K24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="7">
+        <f>(O25-N24)/(O24-N24)</f>
+        <v>1.0672371638141809</v>
+      </c>
+      <c r="P28" s="7">
+        <f>(P25-O24)/(P24-O24)</f>
+        <v>-0.66814159292035402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D29" s="7">
+        <f>(D26-C24)/(D24-C24)</f>
+        <v>2.6462778568041725</v>
+      </c>
+      <c r="H29" s="7">
+        <f>(H26-G24)/(H24-G24)</f>
+        <v>3.1300236406619386</v>
+      </c>
+      <c r="L29" s="7" t="e">
+        <f>(L26-K24)/(L24-K24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="7">
+        <f>(P26-O24)/(P24-O24)</f>
+        <v>-0.7168141592920354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
+        <f>AVERAGE(C28:D29)</f>
+        <v>2.551882349235012</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="8">
+        <f>AVERAGE(G28:H29)</f>
+        <v>1.9309027496876379</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B37" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="12">
+        <v>993</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>2014</v>
+      </c>
+      <c r="B47">
+        <v>12470</v>
+      </c>
+      <c r="C47">
+        <v>193</v>
+      </c>
+      <c r="D47">
+        <v>33080</v>
+      </c>
+      <c r="E47">
+        <v>19931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>2015</v>
+      </c>
+      <c r="B48">
+        <v>15764</v>
+      </c>
+      <c r="C48">
+        <v>288</v>
+      </c>
+      <c r="D48">
+        <v>33897</v>
+      </c>
+      <c r="E48">
+        <v>18552</v>
+      </c>
+      <c r="F48">
+        <f>B48-B47</f>
+        <v>3294</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:H52" si="0">C48-C47</f>
+        <v>95</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>2016</v>
+      </c>
+      <c r="B49">
+        <v>17604</v>
+      </c>
+      <c r="C49">
+        <v>566</v>
+      </c>
+      <c r="D49">
+        <v>33515</v>
+      </c>
+      <c r="E49">
+        <v>19593</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F52" si="1">B49-B48</f>
+        <v>1840</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>2017</v>
+      </c>
+      <c r="B50">
+        <v>20682</v>
+      </c>
+      <c r="C50">
+        <v>1069</v>
+      </c>
+      <c r="D50">
+        <v>35959</v>
+      </c>
+      <c r="E50">
+        <v>18900</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>3078</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="H50">
+        <f>D50-D48</f>
+        <v>2062</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51">
+        <v>21777</v>
+      </c>
+      <c r="C51">
+        <v>1858</v>
+      </c>
+      <c r="D51">
+        <v>35959</v>
+      </c>
+      <c r="E51">
+        <v>19718</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>789</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52">
+        <v>23860</v>
+      </c>
+      <c r="C52">
+        <v>2281</v>
+      </c>
+      <c r="D52">
+        <v>35959</v>
+      </c>
+      <c r="E52">
+        <v>19492</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>2083</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>2020</v>
+      </c>
+      <c r="F53" s="10">
+        <f>B14/B32</f>
+        <v>2650.2005478533802</v>
+      </c>
+      <c r="G53" s="10">
+        <f>B15/$F$32</f>
+        <v>1610.6455907751463</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>2021</v>
+      </c>
+      <c r="F54" s="10">
+        <f>(C14-B14)/B32</f>
+        <v>1352.3350718086672</v>
+      </c>
+      <c r="G54" s="10">
+        <f>(C15-B15)/F32</f>
+        <v>2758.2953107615531</v>
+      </c>
+      <c r="H54" s="12">
+        <v>993</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>2022</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F56" s="6"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E41" r:id="rId1" xr:uid="{42221DF8-E82E-41E0-A887-8E18CE7B8342}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{A086030A-F685-4134-A433-CE15050C738C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -666,7 +1725,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -779,30 +1838,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>'Texas Notes'!H48</f>
+        <v>817</v>
       </c>
       <c r="C3">
+        <f>'Texas Notes'!H49</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>'Texas Notes'!H50</f>
+        <v>2062</v>
       </c>
       <c r="E3">
+        <f>'Texas Notes'!H51</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f>'Texas Notes'!H52</f>
         <v>0</v>
       </c>
       <c r="G3">
+        <f>'Texas Notes'!H53</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>'Texas Notes'!H54</f>
+        <v>993</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -892,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1118,30 +2184,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>'Texas Notes'!F48</f>
+        <v>3294</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>'Texas Notes'!F49</f>
+        <v>1840</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>'Texas Notes'!F50</f>
+        <v>3078</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>'Texas Notes'!F51</f>
+        <v>1095</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <f>'Texas Notes'!F52</f>
+        <v>2083</v>
+      </c>
+      <c r="G6" s="10">
+        <f>'Texas Notes'!F53</f>
+        <v>2650.2005478533802</v>
+      </c>
+      <c r="H6" s="10">
+        <f>'Texas Notes'!F54</f>
+        <v>1352.3350718086672</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1231,30 +2304,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>'Texas Notes'!G48</f>
+        <v>95</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>'Texas Notes'!G49</f>
+        <v>278</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>'Texas Notes'!G50</f>
+        <v>503</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>'Texas Notes'!G51</f>
+        <v>789</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <f>'Texas Notes'!G52</f>
+        <v>423</v>
+      </c>
+      <c r="G7" s="10">
+        <f>'Texas Notes'!G53</f>
+        <v>1610.6455907751463</v>
+      </c>
+      <c r="H7" s="10">
+        <f>'Texas Notes'!G54</f>
+        <v>2758.2953107615531</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1344,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1796,29 +2876,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12">
+        <f>'Texas Notes'!I48</f>
         <v>0</v>
       </c>
       <c r="C12">
+        <f>'Texas Notes'!I49</f>
         <v>0</v>
       </c>
       <c r="D12">
+        <f>'Texas Notes'!I50</f>
         <v>0</v>
       </c>
       <c r="E12">
+        <f>'Texas Notes'!I51</f>
         <v>0</v>
       </c>
       <c r="F12">
+        <f>'Texas Notes'!I52</f>
         <v>0</v>
       </c>
       <c r="G12">
+        <f>'Texas Notes'!I53</f>
         <v>0</v>
       </c>
       <c r="H12">
+        <f>'Texas Notes'!I54</f>
         <v>0</v>
       </c>
       <c r="I12">
@@ -1909,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2135,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2248,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2361,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>26</v>
       </c>
